--- a/server/insert schema.xlsx
+++ b/server/insert schema.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\randomQuestionPERN\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB532B05-C94A-419D-BB47-54CCF96BE0D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7C5276-666F-4E91-8163-D903FC427BCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AFB88CA-2648-4B5E-9B33-E2AC3AD88FF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AFB88CA-2648-4B5E-9B33-E2AC3AD88FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="615">
   <si>
     <t>What does your family think of your career?</t>
   </si>
@@ -1255,6 +1256,621 @@
   </si>
   <si>
     <t>INSERT INTO question (question_text,answer_text, is_answered) VALUES ('If you could change anything about yourself, would you? If so, what?','empty','f');</t>
+  </si>
+  <si>
+    <t>How old are you','40','f');</t>
+  </si>
+  <si>
+    <t>If you could change anything about yourself, would you? If so, what?','empty','f');</t>
+  </si>
+  <si>
+    <t>What is your favorite way to spend a day off?'</t>
+  </si>
+  <si>
+    <t>What type of music are you into?'</t>
+  </si>
+  <si>
+    <t>What was the best vacation you ever took?'</t>
+  </si>
+  <si>
+    <t>Where is the next place on your travel bucket list?'</t>
+  </si>
+  <si>
+    <t>What is your first hobby?'</t>
+  </si>
+  <si>
+    <t>What was your favorite age growing up?'</t>
+  </si>
+  <si>
+    <t>What was the last thing you read?'</t>
+  </si>
+  <si>
+    <t>Would you say you  are more of an extrovert or an introvert?'</t>
+  </si>
+  <si>
+    <t>What is your favorite ice cream topping?'</t>
+  </si>
+  <si>
+    <t>What was the last TV show you binge-watched?'</t>
+  </si>
+  <si>
+    <t>Are you into podcasts or do you only listen to music?'</t>
+  </si>
+  <si>
+    <t>what is your favorite holiday? '</t>
+  </si>
+  <si>
+    <t>If you could only eat one food for the rest of your life, what would it be?'</t>
+  </si>
+  <si>
+    <t>Do you like going to the movies or prefer watching at home?'</t>
+  </si>
+  <si>
+    <t>What is your favorite sleeping position?'</t>
+  </si>
+  <si>
+    <t>What is your go-to guilty pleasure?'</t>
+  </si>
+  <si>
+    <t>In the summer, would you rather go to the beach or go camping?'</t>
+  </si>
+  <si>
+    <t>What is your favorite quote from a TV show/movie/book?'</t>
+  </si>
+  <si>
+    <t>How old were you when you had your first celebrity crush?'</t>
+  </si>
+  <si>
+    <t>What is one thing that can instantly make your day better?'</t>
+  </si>
+  <si>
+    <t>Do you have any pet peeves?'</t>
+  </si>
+  <si>
+    <t>Which meal is your favorite: breakfast, lunch, or dinner?'</t>
+  </si>
+  <si>
+    <t>What song always gets you out on the dance floor?'</t>
+  </si>
+  <si>
+    <t>When you were a kid, did you eat the crusts on your sandwich or not?'</t>
+  </si>
+  <si>
+    <t>What activity instantly calms you?'</t>
+  </si>
+  <si>
+    <t>Ideally, how would you spend your birthday?'</t>
+  </si>
+  <si>
+    <t>What do you do on your commute to/from work?'</t>
+  </si>
+  <si>
+    <t>Do you have a favorite type of exercise?'</t>
+  </si>
+  <si>
+    <t>What is your favorite season?'</t>
+  </si>
+  <si>
+    <t>What is the best joke you   have ever heard?'</t>
+  </si>
+  <si>
+    <t>What is the phone app you use most?'</t>
+  </si>
+  <si>
+    <t>Would you rather cook or order in?'</t>
+  </si>
+  <si>
+    <t>Have your ever disliked something and then changed your mind?'</t>
+  </si>
+  <si>
+    <t>What is your favorite board game?'</t>
+  </si>
+  <si>
+    <t>How do you take your coffee?'</t>
+  </si>
+  <si>
+    <t>What is your most prized possession?'</t>
+  </si>
+  <si>
+    <t>Is there any product that you could not live without?'</t>
+  </si>
+  <si>
+    <t>Do you sleep with a top sheet?'</t>
+  </si>
+  <si>
+    <t>If you could have any exotic animal as a pet, which would it be?'</t>
+  </si>
+  <si>
+    <t>What would be the first thing you would do if you won the lottery?'</t>
+  </si>
+  <si>
+    <t>What is your favorite thing about your current job?'</t>
+  </si>
+  <si>
+    <t>What annoys you most?'</t>
+  </si>
+  <si>
+    <t>What is the career highlight you  are most proud of?'</t>
+  </si>
+  <si>
+    <t>Do you think you will stay in your current gig awhile?'</t>
+  </si>
+  <si>
+    <t>What type of role do you want to take on after this one?'</t>
+  </si>
+  <si>
+    <t>Are you more of a "work to live" or a "live to work" type of person?'</t>
+  </si>
+  <si>
+    <t>Does your job make you feel happy and fulfilled? '</t>
+  </si>
+  <si>
+    <t>How would your 10-year-old self react to what you do now?'</t>
+  </si>
+  <si>
+    <t>What do you remember most about your first job?'</t>
+  </si>
+  <si>
+    <t>How old were you when you started working?'</t>
+  </si>
+  <si>
+    <t>What is the worst job you   have ever had?'</t>
+  </si>
+  <si>
+    <t>What originally got you interested in your current field of work?'</t>
+  </si>
+  <si>
+    <t>Have you ever had a side hustle or considered having one?'</t>
+  </si>
+  <si>
+    <t>What is your favorite part of the workday?'</t>
+  </si>
+  <si>
+    <t>What is the best career decision you   have ever made?'</t>
+  </si>
+  <si>
+    <t>What is the worst career decision you   have ever made?'</t>
+  </si>
+  <si>
+    <t>Do you consider yourself good at networking?'</t>
+  </si>
+  <si>
+    <t>What career advice would you give to your younger self?'</t>
+  </si>
+  <si>
+    <t>Do you believe in having a "five-year plan"?'</t>
+  </si>
+  <si>
+    <t>How do you separate your work life from your home life?'</t>
+  </si>
+  <si>
+    <t>When will you know you   have "made it"?'</t>
+  </si>
+  <si>
+    <t>Are you looking forward to retiring, or do you plan to work as long as possible?'</t>
+  </si>
+  <si>
+    <t>Have you ever had "imposter syndrome"?'</t>
+  </si>
+  <si>
+    <t>What do you think about workaholics?'</t>
+  </si>
+  <si>
+    <t>What qualities do you look for in a boss?'</t>
+  </si>
+  <si>
+    <t>Do you have a professional mentor?'</t>
+  </si>
+  <si>
+    <t>Do you have a work best friend?'</t>
+  </si>
+  <si>
+    <t>Are you into after-work happy hours?'</t>
+  </si>
+  <si>
+    <t>How do you motivate yourself in your career?'</t>
+  </si>
+  <si>
+    <t>How do you pick yourself back up after making a mistake at work?'</t>
+  </si>
+  <si>
+    <t>How do you deal with work stress?'</t>
+  </si>
+  <si>
+    <t>What energizes you about your career?'</t>
+  </si>
+  <si>
+    <t>What is one work-related thing you want to accomplish in the next year?'</t>
+  </si>
+  <si>
+    <t>Who has had the biggest impact on your career choice?'</t>
+  </si>
+  <si>
+    <t>What does your family think of your career?'</t>
+  </si>
+  <si>
+    <t>What is the best thing you   have learned in your current position?'</t>
+  </si>
+  <si>
+    <t>If you could do it all over again, would you pursue the same career? '</t>
+  </si>
+  <si>
+    <t>How much time do you spend with your family?'</t>
+  </si>
+  <si>
+    <t>Who do you most like spending time with?'</t>
+  </si>
+  <si>
+    <t>Were you close with your family growing up?'</t>
+  </si>
+  <si>
+    <t>How do you define your family now?'</t>
+  </si>
+  <si>
+    <t>What traits are most important to you in your family members?'</t>
+  </si>
+  <si>
+    <t>Who are you the closest to?'</t>
+  </si>
+  <si>
+    <t>Do you want a family of your own?'</t>
+  </si>
+  <si>
+    <t>What is your favorite family tradition?'</t>
+  </si>
+  <si>
+    <t>If you could change your relationship with a family member, would you? '</t>
+  </si>
+  <si>
+    <t>What was it like growing up as the youngest/oldest/middle/only child?'</t>
+  </si>
+  <si>
+    <t>Does your family ever take trips together?'</t>
+  </si>
+  <si>
+    <t>What is your favorite family memory?'</t>
+  </si>
+  <si>
+    <t>What TV family most reminds you of your own?'</t>
+  </si>
+  <si>
+    <t>Do you ever wish you were raised differently?'</t>
+  </si>
+  <si>
+    <t>What is the best piece of advice a family member has given you?'</t>
+  </si>
+  <si>
+    <t>Do you wish you had more siblings?'</t>
+  </si>
+  <si>
+    <t>Did you ever hide anything from or lie to your parents?'</t>
+  </si>
+  <si>
+    <t>If you had a family business, what would it be?'</t>
+  </si>
+  <si>
+    <t>Do you and your family have any nicknames for each other?'</t>
+  </si>
+  <si>
+    <t>What is your favorite way to spend time with your family?'</t>
+  </si>
+  <si>
+    <t>How do you show your family you love them?'</t>
+  </si>
+  <si>
+    <t>Have you ever been to a family reunion?'</t>
+  </si>
+  <si>
+    <t>What is the most important holiday you spend with your family?'</t>
+  </si>
+  <si>
+    <t>Who in your family would you describe as a "character"?'</t>
+  </si>
+  <si>
+    <t>How do you feel about family events?'</t>
+  </si>
+  <si>
+    <t>What is something your family would be surprised to learn about you?'</t>
+  </si>
+  <si>
+    <t>Which family member do you confide in most?'</t>
+  </si>
+  <si>
+    <t>How do you deal with arguments between family members?'</t>
+  </si>
+  <si>
+    <t>Do you have any friends you would consider family?'</t>
+  </si>
+  <si>
+    <t>Has your family ever pressured you to act a certain way?'</t>
+  </si>
+  <si>
+    <t>Did you ever get to meet your great-grandparents?'</t>
+  </si>
+  <si>
+    <t>What personality traits do you share with your relatives?'</t>
+  </si>
+  <si>
+    <t>What physical traits do you share with your relatives?'</t>
+  </si>
+  <si>
+    <t>What stories did your family members tell you growing up?'</t>
+  </si>
+  <si>
+    <t>How did your parents (and/or grandparents) meet?'</t>
+  </si>
+  <si>
+    <t>What makes you proud of your family?'</t>
+  </si>
+  <si>
+    <t>Who is the newest member of your family?'</t>
+  </si>
+  <si>
+    <t>What can always bring your family together?'</t>
+  </si>
+  <si>
+    <t>What is a relationship deal breaker for you?'</t>
+  </si>
+  <si>
+    <t>If you had only one sense (hearing, touch, sight, etc.), which would you want?'</t>
+  </si>
+  <si>
+    <t>What is your definition of success?'</t>
+  </si>
+  <si>
+    <t>What makes you feel at peace?'</t>
+  </si>
+  <si>
+    <t>What are you most proud of in the last year?'</t>
+  </si>
+  <si>
+    <t>What makes you feel most accomplished?'</t>
+  </si>
+  <si>
+    <t>Who do you admire most in the world?'</t>
+  </si>
+  <si>
+    <t>Would you rather make more money doing a job you hate or less doing one you love?'</t>
+  </si>
+  <si>
+    <t>Which of your personality traits are you most proud of?'</t>
+  </si>
+  <si>
+    <t>What is the first thing you look for in a partner and/or friend?'</t>
+  </si>
+  <si>
+    <t>How has your perspective on the world changed over time?'</t>
+  </si>
+  <si>
+    <t>Do you live by any piece of advice or motto?'</t>
+  </si>
+  <si>
+    <t>How can someone earn your trust?'</t>
+  </si>
+  <si>
+    <t>How can someone lose your trust?'</t>
+  </si>
+  <si>
+    <t>Would you rather someone be honest and hurt your feelings or lie to protect them?'</t>
+  </si>
+  <si>
+    <t>If you could snap your fingers and instantly make the world better, what would you do?'</t>
+  </si>
+  <si>
+    <t>Do you believe in astrology?'</t>
+  </si>
+  <si>
+    <t>Have you ever lost a friend?'</t>
+  </si>
+  <si>
+    <t>If you could only teach one thing to your (future) child, what would it be?'</t>
+  </si>
+  <si>
+    <t>What is the scariest thing you   have ever done, and why did you do it?'</t>
+  </si>
+  <si>
+    <t>Do you believe in second chances?'</t>
+  </si>
+  <si>
+    <t>Where do you get your news?'</t>
+  </si>
+  <si>
+    <t>What is your biggest irrational fear?'</t>
+  </si>
+  <si>
+    <t>Are you active on social media, or do you prefer to be more private?'</t>
+  </si>
+  <si>
+    <t>Do you volunteer at all?'</t>
+  </si>
+  <si>
+    <t>Are you an organ donor?'</t>
+  </si>
+  <si>
+    <t>Do you believe you should do one thing a day that scares you?'</t>
+  </si>
+  <si>
+    <t>What, if anything, do you think happens after death?'</t>
+  </si>
+  <si>
+    <t>What line should someone never cross with you?'</t>
+  </si>
+  <si>
+    <t>How do you define beauty?'</t>
+  </si>
+  <si>
+    <t>Do you believe in life on other planets?'</t>
+  </si>
+  <si>
+    <t>How do you interact with someone who disagrees with you?'</t>
+  </si>
+  <si>
+    <t>If you could do anything, besides what you  are doing now, what would you do?'</t>
+  </si>
+  <si>
+    <t>What do you regret not doing in the last year?'</t>
+  </si>
+  <si>
+    <t>What is on your bucket list?'</t>
+  </si>
+  <si>
+    <t>If you had unlimited money to start your own business, what would it be?'</t>
+  </si>
+  <si>
+    <t>If you found out today was your last day on Earth, what would you do?'</t>
+  </si>
+  <si>
+    <t>If you could live anywhere in the world, where would it be?'</t>
+  </si>
+  <si>
+    <t>A genie gives you three wishes—what are they?'</t>
+  </si>
+  <si>
+    <t>If you had the opportunity to be immortal, would you take it?'</t>
+  </si>
+  <si>
+    <t>Which famous person in history would you want to spend the day with?'</t>
+  </si>
+  <si>
+    <t>If you could time travel, where would you go?'</t>
+  </si>
+  <si>
+    <t>Do you think you will likely accomplish all your dreams?'</t>
+  </si>
+  <si>
+    <t>If you could magically become famous, would you want to?'</t>
+  </si>
+  <si>
+    <t>If you could relive one moment in your life, which would it be?'</t>
+  </si>
+  <si>
+    <t>If you see a puddle on the ground, do you walk around it or over it?'</t>
+  </si>
+  <si>
+    <t>If you could have a super power, what would it be?'</t>
+  </si>
+  <si>
+    <t>If you could go back to anytime in history, where would you go?'</t>
+  </si>
+  <si>
+    <t>If you came back in your next life as an animal, what animal would you be?'</t>
+  </si>
+  <si>
+    <t>If you got to name a new country, '</t>
+  </si>
+  <si>
+    <t>how would you decide what to call it?'</t>
+  </si>
+  <si>
+    <t>What would be the title of your memoir?'</t>
+  </si>
+  <si>
+    <t>Do you hit the snooze button or wake up immediately?'</t>
+  </si>
+  <si>
+    <t>What is the first thing you do in the morning?'</t>
+  </si>
+  <si>
+    <t>What is the last thing you do at night?'</t>
+  </si>
+  <si>
+    <t>Do you believe in any conspiracy theories (no judgement)?'</t>
+  </si>
+  <si>
+    <t>Do you think iced coffee should only be consumed in the summer or all year round?'</t>
+  </si>
+  <si>
+    <t>Would you rather be covered in fur or covered in scales?'</t>
+  </si>
+  <si>
+    <t>What is your idea of a perfect date (yes, of the calendar year)?'</t>
+  </si>
+  <si>
+    <t>What is the most unusual place you   have fallen asleep?'</t>
+  </si>
+  <si>
+    <t>At a party, where can someone find you?'</t>
+  </si>
+  <si>
+    <t>Do you wash your legs in the shower?'</t>
+  </si>
+  <si>
+    <t>Who would play you in the movie of your life?'</t>
+  </si>
+  <si>
+    <t>When making a PB&amp;J sandwich, do you put on the peanut butter or jelly first?'</t>
+  </si>
+  <si>
+    <t>Do you have any allergies?'</t>
+  </si>
+  <si>
+    <t>Do you trust your own memory?'</t>
+  </si>
+  <si>
+    <t>Which fictional character do you relate to most?'</t>
+  </si>
+  <si>
+    <t>What, if anything, would make you walk out in the middle of a movie?'</t>
+  </si>
+  <si>
+    <t>When was the last time you cried?'</t>
+  </si>
+  <si>
+    <t>What is your most controversial opinion about something mundane?'</t>
+  </si>
+  <si>
+    <t>Do you "stan" any celebrities?'</t>
+  </si>
+  <si>
+    <t>What is your go-to midnight snack?'</t>
+  </si>
+  <si>
+    <t>What was your all-time favorite Halloween costume?'</t>
+  </si>
+  <si>
+    <t>What is the weirdest thing you do when you  are alone?'</t>
+  </si>
+  <si>
+    <t>Do you have any recurring dreams?'</t>
+  </si>
+  <si>
+    <t>What is the silliest argument you   have ever been in?'</t>
+  </si>
+  <si>
+    <t>What is the worst argument you   have ever been in?'</t>
+  </si>
+  <si>
+    <t>What is your opinion on modern art?'</t>
+  </si>
+  <si>
+    <t>If you could choose how to die, would you? If so, what would you choose?'</t>
+  </si>
+  <si>
+    <t>What is the most ridiculous outfit you   have ever worn?'</t>
+  </si>
+  <si>
+    <t>What was the first thing you wanted to be when you grew up?'</t>
+  </si>
+  <si>
+    <t>If you could own a mythical creature (unicorn, phoenix, etc.), which one would you pick?'</t>
+  </si>
+  <si>
+    <t>What is your least favorite place in the world?'</t>
+  </si>
+  <si>
+    <t>Would you rather have your dishes or clothes be magically clean?'</t>
+  </si>
+  <si>
+    <t>What is your favorite story about yourself?'</t>
+  </si>
+  <si>
+    <t>What is your favourite color?'</t>
+  </si>
+  <si>
+    <t>What is your favourite car?'</t>
+  </si>
+  <si>
+    <t>What is your favourite blood group?'</t>
   </si>
 </sst>
 </file>
@@ -1290,8 +1906,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1608,7 +2225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1097799-CBC0-4673-9448-79E3E2B9F0DD}">
   <dimension ref="B1:R410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
+    <sheetView topLeftCell="A391" workbookViewId="0">
       <selection activeCell="B206" sqref="B206:B410"/>
     </sheetView>
   </sheetViews>
@@ -7889,4 +8506,1044 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56B743A-57E9-46EB-8169-39272E3782DE}">
+  <dimension ref="A1:A205"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>